--- a/NSGA-II_results_Ur/T_delay_results.xlsx
+++ b/NSGA-II_results_Ur/T_delay_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_origin\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CF0BCE-E70B-4BB8-82ED-8C495FB1F82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC726CEF-0836-4DF0-B201-6D56701609AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25125" yWindow="9945" windowWidth="21600" windowHeight="11055" xr2:uid="{C12DF62B-F2D9-461A-AE85-040C4B6EC084}"/>
+    <workbookView xWindow="-25125" yWindow="9945" windowWidth="21600" windowHeight="11055" firstSheet="12" activeTab="19" xr2:uid="{C12DF62B-F2D9-461A-AE85-040C4B6EC084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,15 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -404,18 +413,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FA7BCA-A8AB-403F-A576-3376DE8FAA36}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B1">
-        <v>49881.035714885867</v>
+        <v>323.55504759074256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -607,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -615,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -623,7 +632,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -631,7 +640,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>4245.7960204945148</v>
+        <v>4145.6114466222098</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -639,7 +648,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>6108.6042018259341</v>
+        <v>5691.0056021341425</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -647,7 +656,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>7092.4496965373428</v>
+        <v>7022.2398081032916</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -655,7 +664,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>9464.1221670609848</v>
+        <v>10436.786330592558</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -663,7 +672,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>10523.394003609075</v>
+        <v>10340.126398565075</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -783,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -791,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -799,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -807,7 +816,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>4245.7960204945148</v>
+        <v>4145.6114466222098</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -815,7 +824,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>6108.6042018259341</v>
+        <v>5691.0056021341425</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -823,7 +832,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>7092.4496965373428</v>
+        <v>7022.2398081032916</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -831,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>9464.1221670609848</v>
+        <v>10436.786330592558</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -839,7 +848,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>10523.394003609075</v>
+        <v>10340.126398565075</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -847,7 +856,7 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>13375.432413115635</v>
+        <v>13384.154784622513</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -912,6 +921,1414 @@
       </c>
       <c r="B19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD1AB36-498D-4EC4-BD33-9C73DD6E011C}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7B7135-F292-43A2-AE32-41EB253B95D0}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40593EE4-0D4E-4655-8A7E-0778D1270845}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC2C46D-7FE0-4E00-A142-26523443B6AC}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>37776.574213201973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C9BEC4-41B8-4C7E-A51F-6F1D29FD6B2C}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>37776.574213201973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>49418.61132035507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A6C46-6C13-4786-9FAF-E6A6E89794D3}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>37776.574213201973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>49418.61132035507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>64196.52329482021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B60D8B-376B-4B79-8440-FC7A77E4BAF6}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>37776.574213201973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>49418.61132035507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>64196.52329482021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>83179.944137836384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC9B143-9CAE-4730-8B34-2C034DA91610}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>37776.574213201973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>49418.61132035507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>64196.52329482021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>83179.944137836384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>65535</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -1104,6 +2521,182 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78656111-4786-41A4-BB6E-1DAC992F3781}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>323.55504759074256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>537.86166582567228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1143.1106559401678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1960.6399805671788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2864.8515858088717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4145.6114466222098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>5691.0056021341425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7022.2398081032916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>10436.786330592558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10340.126398565075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>13384.154784622513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>19042.802247173153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>23543.504450425113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>28580.068972324047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>37776.574213201973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>49418.61132035507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>64196.52329482021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>83179.944137836384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>95</v>
+      </c>
+      <c r="B19">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>65535</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661D088A-D5EB-4056-9A3C-1A4C7FB2F1C9}">
   <dimension ref="A1:B20"/>
@@ -1135,7 +2728,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1311,7 +2904,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1319,7 +2912,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1487,7 +3080,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1495,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1503,7 +3096,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -1663,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1671,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1679,7 +3272,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -1687,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>4245.7960204945148</v>
+        <v>4145.6114466222098</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -1839,7 +3432,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1847,7 +3440,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1855,7 +3448,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -1863,7 +3456,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>4245.7960204945148</v>
+        <v>4145.6114466222098</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -1871,7 +3464,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>6108.6042018259341</v>
+        <v>5691.0056021341425</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -2015,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2023,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2031,7 +3624,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -2039,7 +3632,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>4245.7960204945148</v>
+        <v>4145.6114466222098</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -2047,7 +3640,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>6108.6042018259341</v>
+        <v>5691.0056021341425</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -2055,7 +3648,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>7092.4496965373428</v>
+        <v>7022.2398081032916</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -2191,7 +3784,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1000.788404283398</v>
+        <v>1143.1106559401678</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2199,7 +3792,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1695.3388350158307</v>
+        <v>1960.6399805671788</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2207,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>2873.488988347824</v>
+        <v>2864.8515858088717</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -2215,7 +3808,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>4245.7960204945148</v>
+        <v>4145.6114466222098</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -2223,7 +3816,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>6108.6042018259341</v>
+        <v>5691.0056021341425</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -2231,7 +3824,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>7092.4496965373428</v>
+        <v>7022.2398081032916</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -2239,7 +3832,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>9464.1221670609848</v>
+        <v>10436.786330592558</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">

--- a/NSGA-II_results_Ur/T_delay_results.xlsx
+++ b/NSGA-II_results_Ur/T_delay_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA53A2B-F2AF-4AB7-BC1F-4D867A400B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3266F41E-5407-48D2-B9E1-C5E0D5EE67D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{CFD47915-FF36-40A3-A447-FE330D3D6F9C}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{CFD47915-FF36-40A3-A447-FE330D3D6F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -400,14 +398,14 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1198.5073331387207</v>
+        <v>1198.5243603408462</v>
       </c>
     </row>
   </sheetData>

--- a/NSGA-II_results_Ur/T_delay_results.xlsx
+++ b/NSGA-II_results_Ur/T_delay_results.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3266F41E-5407-48D2-B9E1-C5E0D5EE67D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C4EDC-38AA-4286-9C70-4B492E31BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{CFD47915-FF36-40A3-A447-FE330D3D6F9C}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{CFD47915-FF36-40A3-A447-FE330D3D6F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -392,20 +401,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A84C1CB-4E87-4BD6-B2C2-67FA0C5D4154}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>60</v>
       </c>
       <c r="B1">
-        <v>1198.5243603408462</v>
+        <v>147.63415863179782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D6E926-9957-4F79-9B63-D2953D3E09BB}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>244.00621620180306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>271.02925205962111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>291.63839481780354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>315.5010870057643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>346.29800145177353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>365.88192632340861</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2DB057-72B4-4625-AB4E-1FFC55E1F6B8}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0929050-7C78-4D5A-8C33-EA85DF0C823F}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF69F83-6B22-4690-8D81-BD06DA84CEBB}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C0BCA-0D04-4B29-8FCF-22CF445D9259}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>244.00621620180306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F705C1C8-C784-4E77-9062-08B10403F779}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>244.00621620180306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>271.02925205962111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E393548-5392-4231-8DAA-1516F7E2BCCE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>244.00621620180306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>271.02925205962111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>291.63839481780354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFE6456-7CDF-4432-962F-15A40BF28E73}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>244.00621620180306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>271.02925205962111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>291.63839481780354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>315.5010870057643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310B2257-C0F0-48EC-84D9-84CDF260067B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>175.5496544056644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>199.23501731024029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>223.39072591598108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>244.00621620180306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <v>271.02925205962111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <v>291.63839481780354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>315.5010870057643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>140</v>
+      </c>
+      <c r="B9">
+        <v>346.29800145177353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NSGA-II_results_Ur/T_delay_results.xlsx
+++ b/NSGA-II_results_Ur/T_delay_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C4EDC-38AA-4286-9C70-4B492E31BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C105005-7BD5-4C07-A67A-72A434615121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{CFD47915-FF36-40A3-A447-FE330D3D6F9C}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{CFD47915-FF36-40A3-A447-FE330D3D6F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,17 +407,17 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
       <c r="B1">
-        <v>147.63415863179782</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147.48255247894835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -425,7 +425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -503,9 +503,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -513,7 +513,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -521,7 +521,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -529,7 +529,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -537,7 +537,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -545,7 +545,7 @@
         <v>244.00621620180306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>110</v>
       </c>
@@ -553,7 +553,7 @@
         <v>271.02925205962111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>120</v>
       </c>
@@ -561,7 +561,7 @@
         <v>291.63839481780354</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>130</v>
       </c>
@@ -569,7 +569,7 @@
         <v>315.5010870057643</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>140</v>
       </c>
@@ -577,7 +577,7 @@
         <v>346.29800145177353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>150</v>
       </c>
@@ -599,9 +599,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -609,7 +609,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -617,7 +617,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -695,9 +695,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -705,7 +705,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -713,7 +713,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -721,7 +721,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -791,9 +791,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -801,7 +801,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -809,7 +809,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -817,7 +817,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -825,7 +825,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -887,9 +887,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -897,7 +897,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -905,7 +905,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -913,7 +913,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -921,7 +921,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -929,7 +929,7 @@
         <v>244.00621620180306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -983,9 +983,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -993,7 +993,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>244.00621620180306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>271.02925205962111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1079,9 +1079,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>244.00621620180306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>271.02925205962111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>291.63839481780354</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1175,9 +1175,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>244.00621620180306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>271.02925205962111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>291.63839481780354</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>130</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>315.5010870057643</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1271,9 +1271,9 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>60</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>147.48255247894835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>70</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>175.5496544056644</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>80</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>199.23501731024029</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>223.39072591598108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>244.00621620180306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>271.02925205962111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>120</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>291.63839481780354</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>130</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>315.5010870057643</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>140</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>346.29800145177353</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
